--- a/used_cars_shop_tabella.xlsx
+++ b/used_cars_shop_tabella.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>USED CARS SHOP</t>
   </si>
@@ -34,7 +34,13 @@
     <t>INT</t>
   </si>
   <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
     <t>PRIMARY_KEY</t>
+  </si>
+  <si>
+    <t>*** PRIMARY KEY ha NOT NULL e UNIQUE di default</t>
   </si>
   <si>
     <t>marca</t>
@@ -179,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -201,6 +207,12 @@
     <font>
       <b/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="5"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -338,11 +350,11 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -608,6 +620,8 @@
     <col customWidth="1" min="6" max="6" width="17.5"/>
     <col customWidth="1" min="7" max="7" width="4.0"/>
     <col customWidth="1" min="8" max="8" width="16.63"/>
+    <col customWidth="1" min="9" max="9" width="2.88"/>
+    <col customWidth="1" min="10" max="10" width="43.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -677,193 +691,198 @@
         <v>6</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="9" t="s">
-        <v>7</v>
+      <c r="H9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="H11" s="12"/>
     </row>
     <row r="12">
       <c r="B12" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14">
       <c r="B14" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="12"/>
     </row>
     <row r="15">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H15" s="12"/>
     </row>
     <row r="16">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H17" s="12"/>
     </row>
     <row r="18">
       <c r="B18" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19">
       <c r="B19" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20">
       <c r="B20" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21">
       <c r="B21" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22">
       <c r="B22" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H22" s="12"/>
     </row>
     <row r="23">
       <c r="B23" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H23" s="12"/>
     </row>
     <row r="24">
       <c r="B24" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="17"/>
@@ -882,15 +901,15 @@
     </row>
     <row r="27">
       <c r="B27" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H27" s="1"/>
     </row>
@@ -902,15 +921,15 @@
     </row>
     <row r="29">
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7">
         <v>1.0</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="9" t="s">
-        <v>41</v>
+      <c r="F29" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -920,7 +939,7 @@
         <v>2.0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -932,21 +951,21 @@
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32">
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="7">
         <v>1.0</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="9" t="s">
-        <v>45</v>
+      <c r="F32" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -956,7 +975,7 @@
         <v>2.0</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H33" s="1"/>
     </row>
@@ -966,7 +985,7 @@
         <v>3.0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H34" s="1"/>
     </row>
@@ -976,7 +995,7 @@
         <v>4.0</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -988,21 +1007,21 @@
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="7">
         <v>1.0</v>
       </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="9" t="s">
-        <v>51</v>
+      <c r="F37" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="H37" s="1"/>
     </row>
@@ -1014,21 +1033,21 @@
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39">
       <c r="B39" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="7">
         <v>1.0</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="9" t="s">
-        <v>51</v>
+      <c r="F39" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="H39" s="1"/>
     </row>
@@ -1040,7 +1059,7 @@
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H40" s="1"/>
     </row>
